--- a/sikronizim me xml ne c#.xlsx
+++ b/sikronizim me xml ne c#.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F32CD0-C01C-4B8B-965F-A6C9C3A14543}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E14361-BC73-4701-8E37-915100316F78}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="2205" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,12 +31,6 @@
     <t>secila Databaze, Server apo Client  do I gjeneroje kodet perkatese ne kete sintakse &lt;identifikator i databazes&gt;_&lt;sekuence&gt;. Psh nese server ka identifikator fjalen SERVER tehere kodet e Artikujve te rinj do vetesugjeroheshin SERVER_1, SERVER_2 etj ndersa per cient do vetesugjeroheshin CLIENT_1, CLIENT_2 etj. ky identifikator te jete i konfigurueshem ne nje tabele parametash ne secilen db</t>
   </si>
   <si>
-    <t>per te procesuar xml-te e paprocesuarn e SERVER me status=U ne xml_log,  do ndertohet nje miniaplikacion ServerSync me nje buton Proceso e cila te gjithe xml me status=U  ne rend kronologjik rrites do I ktheje ne Insert/Update/Delete perkates per te tabelen e Artikujve te databazes se dyte</t>
-  </si>
-  <si>
-    <t>per te procesuar rekordet Artikuj me Process_Status=U ne Client, per te cilat nuk eshte gjeneruar nje Insert,   do ndertohet nje miniaplikacion CientSync me nje buton Proceso e cila te gjithe Artikujt me PROCCESS_status=U  ne rend kronologjik rrites do I ktheje ne xml Insert dhe do ja dergoje servisit IIS me qellimin qe ky i fundit ti fuse ne Server</t>
-  </si>
-  <si>
     <t>I njeti mekanizem do realizohet edhe per Modifikimin e Artikujve dhe Fshirjen e tyre.  Per identifikimin e Artikujve eqe do te fshihen/updatohen do te sherbej nje numer identifikimi si psh Kod Artikulli I cili do jete nje numer unik identifikimi qe do shtohet edhe ne ruatje te nje Artikulli. Nga sa imagjinohet xml e Update do jete me te gjithe te dhenat e Artikullit, kurse ajo e Fshirjes vetem me Kod Artikulli (mese e mjaftueshme per te lokalizuar rekordin dh efshire ate)</t>
   </si>
   <si>
@@ -50,6 +44,58 @@
   </si>
   <si>
     <t>nese insert ne xml_log kryhet me sukses atehere aplikacionit kryesor client   UI do I kthehet nje mesazh suksesi  dhe error_code=0 ne xml format dhe rekordi Artikull perkates me Client do market me PROCES_STATUS='P' (proccessed), ne te kundert ,nese servisi nuk eshte Listening apo ska lidhje me pc server etj,nje mesazh gabimi me error_code&lt;&gt;0 ne xml format do ti kthehet Clientit dhe rekordi perkates Artikull do te ruhet me PROCES_STATUS='U' (unproccessed)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">per te procesuar xml-te e paprocesuarn e SERVER me status=U ne xml_log,  do ndertohet nje miniaplikacion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ServerSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> me nje buton Proceso e cila te gjithe xml me status=U  ne rend kronologjik rrites do I ktheje ne Insert/Update/Delete perkates per te tabelen e Artikujve te databazes se dyte</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">per te procesuar rekordet Artikuj me Process_Status=U ne Client, per te cilat nuk eshte gjeneruar nje Insert,   do ndertohet nje miniaplikacion </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CientSync</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> me nje buton Proceso e cila te gjithe Artikujt me PROCCESS_status=U  ne rend kronologjik rrites do I ktheje ne xml Insert dhe do ja dergoje servisit IIS me qellimin qe ky i fundit ti fuse ne Server</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -440,7 +486,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +508,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -473,32 +519,32 @@
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
